--- a/LeadtoOppturnity.xlsx
+++ b/LeadtoOppturnity.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="44">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="56">
   <x:si>
     <x:t>TestScenarioID</x:t>
   </x:si>
@@ -139,6 +139,12 @@
     <x:t>9</x:t>
   </x:si>
   <x:si>
+    <x:t>Click on the Frame</x:t>
+  </x:si>
+  <x:si>
+    <x:t>User Shoud be able to click on Lead Frame</x:t>
+  </x:si>
+  <x:si>
     <x:t>10</x:t>
   </x:si>
   <x:si>
@@ -146,6 +152,36 @@
   </x:si>
   <x:si>
     <x:t>User Should be able to click on the Created Lead</x:t>
+  </x:si>
+  <x:si>
+    <x:t>11</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Click on the parent</x:t>
+  </x:si>
+  <x:si>
+    <x:t>User Should be able to click on the parent frame</x:t>
+  </x:si>
+  <x:si>
+    <x:t>12</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Click on Qualify</x:t>
+  </x:si>
+  <x:si>
+    <x:t>User Should be able to click on the Qualify</x:t>
+  </x:si>
+  <x:si>
+    <x:t>13</x:t>
+  </x:si>
+  <x:si>
+    <x:t>14</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Click on the Oppturnity</x:t>
+  </x:si>
+  <x:si>
+    <x:t>User Should be able to click on the Oppturnity</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -229,8 +265,8 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:J11" totalsRowShown="0">
-  <x:autoFilter ref="A1:J11"/>
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:J15" totalsRowShown="0">
+  <x:autoFilter ref="A1:J15"/>
   <x:tableColumns count="10">
     <x:tableColumn id="1" name="TestScenarioID"/>
     <x:tableColumn id="2" name="TestCaseID"/>
@@ -535,7 +571,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:J11"/>
+  <x:dimension ref="A1:J15"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -750,8 +786,12 @@
       <x:c r="F10" s="0" t="s">
         <x:v>40</x:v>
       </x:c>
-      <x:c r="G10" s="0" t="s"/>
-      <x:c r="H10" s="0" t="s"/>
+      <x:c r="G10" s="0" t="s">
+        <x:v>41</x:v>
+      </x:c>
+      <x:c r="H10" s="0" t="s">
+        <x:v>42</x:v>
+      </x:c>
       <x:c r="I10" s="0" t="s"/>
       <x:c r="J10" s="0" t="s"/>
     </x:row>
@@ -762,16 +802,88 @@
       <x:c r="D11" s="0" t="s"/>
       <x:c r="E11" s="0" t="s"/>
       <x:c r="F11" s="0" t="s">
-        <x:v>41</x:v>
+        <x:v>43</x:v>
       </x:c>
       <x:c r="G11" s="0" t="s">
-        <x:v>42</x:v>
+        <x:v>44</x:v>
       </x:c>
       <x:c r="H11" s="0" t="s">
-        <x:v>43</x:v>
+        <x:v>45</x:v>
       </x:c>
       <x:c r="I11" s="0" t="s"/>
       <x:c r="J11" s="0" t="s"/>
+    </x:row>
+    <x:row r="12" spans="1:10">
+      <x:c r="A12" s="0" t="s"/>
+      <x:c r="B12" s="0" t="s"/>
+      <x:c r="C12" s="0" t="s"/>
+      <x:c r="D12" s="0" t="s"/>
+      <x:c r="E12" s="0" t="s"/>
+      <x:c r="F12" s="0" t="s">
+        <x:v>46</x:v>
+      </x:c>
+      <x:c r="G12" s="0" t="s">
+        <x:v>47</x:v>
+      </x:c>
+      <x:c r="H12" s="0" t="s">
+        <x:v>48</x:v>
+      </x:c>
+      <x:c r="I12" s="0" t="s"/>
+      <x:c r="J12" s="0" t="s"/>
+    </x:row>
+    <x:row r="13" spans="1:10">
+      <x:c r="A13" s="0" t="s"/>
+      <x:c r="B13" s="0" t="s"/>
+      <x:c r="C13" s="0" t="s"/>
+      <x:c r="D13" s="0" t="s"/>
+      <x:c r="E13" s="0" t="s"/>
+      <x:c r="F13" s="0" t="s">
+        <x:v>49</x:v>
+      </x:c>
+      <x:c r="G13" s="0" t="s">
+        <x:v>50</x:v>
+      </x:c>
+      <x:c r="H13" s="0" t="s">
+        <x:v>51</x:v>
+      </x:c>
+      <x:c r="I13" s="0" t="s"/>
+      <x:c r="J13" s="0" t="s"/>
+    </x:row>
+    <x:row r="14" spans="1:10">
+      <x:c r="A14" s="0" t="s"/>
+      <x:c r="B14" s="0" t="s"/>
+      <x:c r="C14" s="0" t="s"/>
+      <x:c r="D14" s="0" t="s"/>
+      <x:c r="E14" s="0" t="s"/>
+      <x:c r="F14" s="0" t="s">
+        <x:v>52</x:v>
+      </x:c>
+      <x:c r="G14" s="0" t="s">
+        <x:v>35</x:v>
+      </x:c>
+      <x:c r="H14" s="0" t="s">
+        <x:v>36</x:v>
+      </x:c>
+      <x:c r="I14" s="0" t="s"/>
+      <x:c r="J14" s="0" t="s"/>
+    </x:row>
+    <x:row r="15" spans="1:10">
+      <x:c r="A15" s="0" t="s"/>
+      <x:c r="B15" s="0" t="s"/>
+      <x:c r="C15" s="0" t="s"/>
+      <x:c r="D15" s="0" t="s"/>
+      <x:c r="E15" s="0" t="s"/>
+      <x:c r="F15" s="0" t="s">
+        <x:v>53</x:v>
+      </x:c>
+      <x:c r="G15" s="0" t="s">
+        <x:v>54</x:v>
+      </x:c>
+      <x:c r="H15" s="0" t="s">
+        <x:v>55</x:v>
+      </x:c>
+      <x:c r="I15" s="0" t="s"/>
+      <x:c r="J15" s="0" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
